--- a/data/trans_camb/P05B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P05B_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.300744857321007</v>
+        <v>-3.557175926104959</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.464827515430992</v>
+        <v>-3.609590182357534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.85531353763136</v>
+        <v>-4.056425189312985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.396437220462664</v>
+        <v>-3.298205926732441</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.358796300991557</v>
+        <v>-2.502187905178069</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.492485884834364</v>
+        <v>-3.671176067019463</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.756852346157212</v>
+        <v>-2.759020183494719</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.494202823549026</v>
+        <v>-2.463010635769734</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.062041581056573</v>
+        <v>-3.244813898711829</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.01284223263885377</v>
+        <v>0.00781797327024566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3052751500388083</v>
+        <v>-0.2579949917299698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.5468395339756632</v>
+        <v>-0.6173427218530375</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6030374625572127</v>
+        <v>0.7575851826208192</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.249258555025845</v>
+        <v>2.120636227121079</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6233974445959728</v>
+        <v>0.7187764938343753</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.1687621059749215</v>
+        <v>-0.2225820182185615</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2806583814562271</v>
+        <v>0.3277109595346553</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.5076348030640342</v>
+        <v>-0.4771803075098124</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.7017590165726781</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.8415038418703825</v>
+        <v>-0.8415038418703824</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.4417399995110816</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8912509026144989</v>
+        <v>-0.8995194415198623</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9420546460485657</v>
+        <v>-0.9277279873979895</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8095223628467039</v>
+        <v>-0.7962890061086152</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6061156435782035</v>
+        <v>-0.6444212535369358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8856479115111155</v>
+        <v>-0.8789225460810578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7587555441946041</v>
+        <v>-0.7614335267110283</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6958741269837646</v>
+        <v>-0.6940550275667424</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8844236806662243</v>
+        <v>-0.9047697422908912</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2037762703792721</v>
+        <v>0.1521013498364077</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2862142391620381</v>
+        <v>0.1528897312530656</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5415793799879001</v>
+        <v>0.4619812449764806</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4471560179594904</v>
+        <v>0.4478028204357082</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.232754393040745</v>
+        <v>1.1847939133999</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3892291518738456</v>
+        <v>0.5396659051674004</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005102132518628611</v>
+        <v>-0.008263807615789152</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1837929341598081</v>
+        <v>0.2675585114804789</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1602833321770301</v>
+        <v>-0.1302495372091743</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.987588220228803</v>
+        <v>-3.087939192903812</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.364999244019128</v>
+        <v>-3.30319431351015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.040830081196936</v>
+        <v>-2.96593535269906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.029088445512932</v>
+        <v>-4.941628681529981</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.778678524360916</v>
+        <v>-4.583975785944694</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.699424075516188</v>
+        <v>-5.712338623850926</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.424034783353681</v>
+        <v>-3.385997901436213</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.37726345275243</v>
+        <v>-3.456175256141579</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.666985823369937</v>
+        <v>-3.664127301164269</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2424474437945272</v>
+        <v>0.3197198011136815</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2236101302891996</v>
+        <v>-0.06535980797381549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.224530749878078</v>
+        <v>1.245375071035586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.7660641871254215</v>
+        <v>-0.8622395954918881</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.4994037281083194</v>
+        <v>-0.6320458623162668</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.37171340081695</v>
+        <v>-1.561667787955937</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.8089110893437864</v>
+        <v>-0.6884258688571676</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6814124989726565</v>
+        <v>-0.7699266005841511</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.8360395917373465</v>
+        <v>-0.6436701540136078</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.745705472042459</v>
+        <v>-0.7620154324906726</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8337274146823538</v>
+        <v>-0.830435262686304</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7839339858862461</v>
+        <v>-0.7757472756431166</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.816743875168073</v>
+        <v>-0.8092453553210279</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.779596619261596</v>
+        <v>-0.7638866989642227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9021155498995</v>
+        <v>-0.9120321826162997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7131970535945495</v>
+        <v>-0.7277616304922238</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7315055145284005</v>
+        <v>-0.7393863232531052</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8004107262952274</v>
+        <v>-0.783976171169064</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1971059017618934</v>
+        <v>0.179995034038667</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.04502230014933537</v>
+        <v>0.01127952468692068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6619778700681698</v>
+        <v>0.5674023059743694</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2117481149599664</v>
+        <v>-0.2061711405293356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1193033161411492</v>
+        <v>-0.102378433968784</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3216300526959006</v>
+        <v>-0.351178232987421</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2381027003228994</v>
+        <v>-0.2198254087415012</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2218636854137559</v>
+        <v>-0.2371736178120027</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2047097020549788</v>
+        <v>-0.1523820583723167</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.649136360006905</v>
+        <v>-3.572918621255705</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.492157538692569</v>
+        <v>-4.412997230318472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.618987758694256</v>
+        <v>-4.576907707620506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.020143417752783</v>
+        <v>-6.205511431650694</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.103155287030823</v>
+        <v>-6.176717012529634</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.132636252116228</v>
+        <v>-7.226105484343948</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.219868484310864</v>
+        <v>-4.23704542732443</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.820899632953515</v>
+        <v>-4.664967733271943</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.360805489324258</v>
+        <v>-5.345892049187548</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2911690118607753</v>
+        <v>0.2556896890213389</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.005382624353079</v>
+        <v>-1.021794635210785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.9605903239395697</v>
+        <v>-1.019520423109715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.987690985360045</v>
+        <v>-1.887938590228179</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.935772789571237</v>
+        <v>-1.920133831787641</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.459664481322383</v>
+        <v>-3.492114906484449</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-1.357524704158806</v>
+        <v>-1.30773623709668</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.974369100260136</v>
+        <v>-1.89399452001738</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.617540465911113</v>
+        <v>-2.679910726936948</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7379990183442506</v>
+        <v>-0.7337805069132589</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8751577805873725</v>
+        <v>-0.885225692380616</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.9273937467712499</v>
+        <v>-0.9163313156236282</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8252213327920304</v>
+        <v>-0.832314081115728</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.838953791409041</v>
+        <v>-0.8348547894417331</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9540521952448636</v>
+        <v>-0.9471556711598372</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7435739685305514</v>
+        <v>-0.738271296215494</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8177654181506255</v>
+        <v>-0.809434273278551</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.9199566390951321</v>
+        <v>-0.9094326490269521</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2317464695066396</v>
+        <v>0.146900285617668</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3166661962163944</v>
+        <v>-0.2782388365928143</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3077769450893586</v>
+        <v>-0.2475591189328126</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.3773911685712036</v>
+        <v>-0.3841372383852337</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3573872245173361</v>
+        <v>-0.3923661195165976</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.7191051992256302</v>
+        <v>-0.6966440309089589</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3249396681189762</v>
+        <v>-0.3188989124718205</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4807938205776997</v>
+        <v>-0.469983895893755</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.6446455964973129</v>
+        <v>-0.6611926311155202</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.572523293596334</v>
+        <v>-1.410521501193921</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.002914430935687</v>
+        <v>-1.985836724684203</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.130634374432915</v>
+        <v>-3.026385110912627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.92325778790223</v>
+        <v>-4.640019736274904</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.276998577333083</v>
+        <v>-4.22487608023615</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.929959709443716</v>
+        <v>-5.143446707520961</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.628402117787817</v>
+        <v>-2.511801809103057</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.607749123173481</v>
+        <v>-2.587182599620234</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.621989992539527</v>
+        <v>-3.494505971025179</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.022575472117361</v>
+        <v>2.343794147896977</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.45819425508905</v>
+        <v>1.40963706161065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1072736448409016</v>
+        <v>-0.0972337229195646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.902036217040229</v>
+        <v>-0.6794014294010338</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.4782215426490772</v>
+        <v>-0.2930929711177265</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.361649720182058</v>
+        <v>-1.274665297672219</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2263373571834882</v>
+        <v>0.1023165117240971</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.00672533347289684</v>
+        <v>0.07053223005866038</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.153005384057994</v>
+        <v>-1.056646453178772</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.4110397103009213</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.7106484290475804</v>
+        <v>-0.7106484290475803</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5608139458039593</v>
+        <v>-0.5288375563417335</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.702202935632784</v>
+        <v>-0.701072938128977</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.9383248834437886</v>
+        <v>-0.9277736846429839</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.875262360382183</v>
+        <v>-0.879567297505143</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7726730201592568</v>
+        <v>-0.7948986581916844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.87019005249198</v>
+        <v>-0.8760344008663382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6863660333659527</v>
+        <v>-0.6625215791526704</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6875656909248837</v>
+        <v>-0.6803111040886299</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8608626864077743</v>
+        <v>-0.8429714594366374</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.970211716810822</v>
+        <v>2.023453374159828</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.751768976557101</v>
+        <v>1.60799739919579</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1457176752448441</v>
+        <v>0.2278980654589224</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2738350205061172</v>
+        <v>-0.1456599808943146</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06430561823722357</v>
+        <v>-0.07618311114607013</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4144576969033834</v>
+        <v>-0.4148552179624859</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1426602990193351</v>
+        <v>0.08737339307742945</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0315144660067583</v>
+        <v>0.08025082603768613</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4478779269150405</v>
+        <v>-0.4318894729133478</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-2.989980555880194</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.833963170943272</v>
+        <v>-2.833963170943271</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.349012043509902</v>
+        <v>-5.052617473097174</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.119966251379283</v>
+        <v>-5.001303566230976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.826520201044885</v>
+        <v>-4.72697376680576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.029238607938132</v>
+        <v>-5.786417524683686</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.985637043057407</v>
+        <v>-6.198959250657321</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.981597759791476</v>
+        <v>-5.565200709069653</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.513072666975525</v>
+        <v>-4.715949395773689</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.682639661300678</v>
+        <v>-4.833794097385328</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.560989943246629</v>
+        <v>-4.464397225651862</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5918103042979527</v>
+        <v>-0.6476229820990761</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6697947830385936</v>
+        <v>-0.5260965306945304</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5780582430155387</v>
+        <v>-0.4492513955373458</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.107466016890814</v>
+        <v>-1.085396950794931</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.308644086624062</v>
+        <v>-1.102801678706282</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.19021732661925</v>
+        <v>-1.104309834054291</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.422912238540352</v>
+        <v>-1.455155731266206</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.509948917853155</v>
+        <v>-1.519306935605817</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.383702333040047</v>
+        <v>-1.391560277147712</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.6933755901560127</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6571952055904714</v>
+        <v>-0.6571952055904713</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9125242260381269</v>
+        <v>-0.9239626353857952</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9290772129507388</v>
+        <v>-0.9169574837716103</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8794471636460242</v>
+        <v>-0.8615045895138943</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9028901060000881</v>
+        <v>-0.9071680944315413</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9022493898324578</v>
+        <v>-0.9060630800166504</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8395232538706462</v>
+        <v>-0.8352249137917254</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.8481392501461242</v>
+        <v>-0.856460297796816</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.855632392781061</v>
+        <v>-0.8581953534752707</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7943157843417499</v>
+        <v>-0.8038379415491825</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.09535549874424148</v>
+        <v>-0.1743525389331516</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1897466403802415</v>
+        <v>-0.03940707205056326</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1684203912449303</v>
+        <v>-0.1108311109484153</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2483898055672908</v>
+        <v>-0.2513500292794691</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2501783665891446</v>
+        <v>-0.1407820554159567</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3520111817170029</v>
+        <v>-0.315373531244582</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3493161721984664</v>
+        <v>-0.397304287950018</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.4097063608475131</v>
+        <v>-0.4160037595826377</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3870999767335604</v>
+        <v>-0.4323487145198986</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.2314677141276131</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.3313529104295511</v>
+        <v>0.3313529104295514</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-5.42739172531527</v>
@@ -1734,7 +1734,7 @@
         <v>-1.919610683717123</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.19529721152234</v>
+        <v>-2.195297211522339</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.951245117404419</v>
+        <v>-2.054717244595743</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.445314080005996</v>
+        <v>-1.31561224644021</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.130626041269427</v>
+        <v>-1.152695744318438</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.318418477926405</v>
+        <v>-8.384258596964935</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.907336130224828</v>
+        <v>-6.714661442023514</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.910607228893856</v>
+        <v>-7.358867617665712</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.840724913587745</v>
+        <v>-4.814168825726015</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.982155140870911</v>
+        <v>-3.744600368672097</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.772382307858434</v>
+        <v>-3.820956969690243</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.9850918382985216</v>
+        <v>0.8014979786364356</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.096732124778729</v>
+        <v>2.295250786509896</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.644927087085587</v>
+        <v>1.828479686175331</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-3.236839746952796</v>
+        <v>-3.231892975638689</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.325978131712894</v>
+        <v>-1.187545912598149</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.895766418568441</v>
+        <v>-2.114453407835383</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.64712901697605</v>
+        <v>-1.661920649636363</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.242450386461917</v>
+        <v>-0.2101205988940874</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.6943370991020295</v>
+        <v>-0.868631004891633</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.2006007442980596</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2871659259608452</v>
+        <v>0.2871659259608455</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.9151674665253317</v>
@@ -1839,7 +1839,7 @@
         <v>-0.514447382322976</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.5883301825043507</v>
+        <v>-0.5883301825043505</v>
       </c>
     </row>
     <row r="38">
@@ -1851,28 +1851,28 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-0.9724481326082958</v>
+        <v>-0.8204715823411459</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6102480036933695</v>
+        <v>-0.609599033307839</v>
       </c>
       <c r="F38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8500760339981243</v>
+        <v>-0.8463567779465403</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8776760865200153</v>
+        <v>-0.8778657942295776</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.9688461515344361</v>
+        <v>-0.9625969574163188</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7798419041653519</v>
+        <v>-0.7796053430025989</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7539061554074353</v>
+        <v>-0.7624557066414618</v>
       </c>
     </row>
     <row r="39">
@@ -1884,28 +1884,28 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>6.059056444956242</v>
+        <v>6.900212572677646</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.489891910893978</v>
+        <v>5.780860791048252</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.4423630632942787</v>
+        <v>-0.4348481359371327</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.203473573408188</v>
+        <v>-0.2065457259691599</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.4465570578767173</v>
+        <v>-0.4724842326735278</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.4817959415274459</v>
+        <v>-0.4052859653729543</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.03693595572870485</v>
+        <v>-0.02198360943725804</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2229602211985605</v>
+        <v>-0.2784685818602107</v>
       </c>
     </row>
     <row r="40">
@@ -1955,31 +1955,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.058838082926518</v>
+        <v>-6.172786950179732</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.914450554006562</v>
+        <v>-5.740178883993011</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.745047189222634</v>
+        <v>-7.01403227266683</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.777064093547235</v>
+        <v>-5.02465457175668</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.808976912473109</v>
+        <v>-3.873940004833967</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.692101122546969</v>
+        <v>-5.60771360051198</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.307970852373509</v>
+        <v>-4.533307515325219</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.680107656155335</v>
+        <v>-3.752986523864141</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.118293904387973</v>
+        <v>-5.371075671986827</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.100560750229396</v>
+        <v>-0.09394736680121941</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.3971209060667664</v>
+        <v>0.6065774954917926</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.200867542219521</v>
+        <v>-1.316766620743615</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.025990135834645</v>
+        <v>0.6085499285329408</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.328547183338616</v>
+        <v>2.323534515491134</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.796741196723215</v>
+        <v>-0.7263160198147638</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.3119864831930944</v>
+        <v>-0.2865744337250529</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.8624236779167892</v>
+        <v>0.7451734114837092</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.476974594402797</v>
+        <v>-1.648693086550919</v>
       </c>
     </row>
     <row r="43">
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.9143755494895457</v>
+        <v>-0.9188324732712105</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8246456200763138</v>
+        <v>-0.8448420341423887</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.9619505358521555</v>
+        <v>-0.9581255806997395</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7947325037402847</v>
+        <v>-0.8105389518759789</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6908233097477356</v>
+        <v>-0.7234119329524921</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.8908585072276215</v>
+        <v>-0.8763524946143297</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.7586059911448139</v>
+        <v>-0.7895059563619664</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6784049532436711</v>
+        <v>-0.6800518553048415</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.8821684163059188</v>
+        <v>-0.8808313609936523</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2095,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2855991137845864</v>
+        <v>0.1878665082426499</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.255664031320051</v>
+        <v>0.3738310974475685</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.3719360033116823</v>
+        <v>-0.3919114724158514</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4789721587403711</v>
+        <v>0.3837235296518717</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.054979193834099</v>
+        <v>1.010174748183836</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3116841081136393</v>
+        <v>-0.2361767584836696</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.03181189649738818</v>
+        <v>-0.07606147477468714</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2721257404072302</v>
+        <v>0.291069639777304</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.4897280604985284</v>
+        <v>-0.4844298714161159</v>
       </c>
     </row>
     <row r="46">
@@ -2158,7 +2158,7 @@
         <v>-2.072835827461913</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.650618026911973</v>
+        <v>-2.650618026911974</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.008393806224667</v>
+        <v>-2.099728949866101</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.300289569289508</v>
+        <v>-2.340660556147539</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.584196740181768</v>
+        <v>-2.653541639546961</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.87171169594069</v>
+        <v>-3.959301137388097</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.485203165946196</v>
+        <v>-3.418348578587571</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.186345786958972</v>
+        <v>-4.240784752099683</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.778862149562372</v>
+        <v>-2.752168968842725</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.60814372151225</v>
+        <v>-2.692416257457038</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.196646971564409</v>
+        <v>-3.195353418008294</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.4986908896793412</v>
+        <v>-0.5700658886829542</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.8616880895153309</v>
+        <v>-0.8413655700873472</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.216578330430675</v>
+        <v>-1.208372920186634</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.177892202799018</v>
+        <v>-2.262056979757426</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.688636855056924</v>
+        <v>-1.706375516120531</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.722846132608491</v>
+        <v>-2.665503568388329</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.638773562655288</v>
+        <v>-1.600553012707783</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.426981583520512</v>
+        <v>-1.537341892883124</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.11666301388226</v>
+        <v>-2.142157422561846</v>
       </c>
     </row>
     <row r="49">
@@ -2263,7 +2263,7 @@
         <v>-0.5413291161013714</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.6922191784901421</v>
+        <v>-0.6922191784901423</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6060388588252438</v>
+        <v>-0.604544545155139</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6725353253680733</v>
+        <v>-0.6886997672687418</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7568314587644254</v>
+        <v>-0.7670053068774262</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.7491605779603785</v>
+        <v>-0.7598193227990039</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6633685718285566</v>
+        <v>-0.6568225641409712</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7962182931939635</v>
+        <v>-0.7967883991237045</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6650830295044922</v>
+        <v>-0.6565249163837188</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6344748697894319</v>
+        <v>-0.632726207598987</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7593987801341695</v>
+        <v>-0.7569281654111732</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.19560097411688</v>
+        <v>-0.2123105539919978</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3348284359728639</v>
+        <v>-0.3206084006296086</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.4685676917641284</v>
+        <v>-0.4620548559503435</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.5329318766871489</v>
+        <v>-0.5433505137728827</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.4127936058891636</v>
+        <v>-0.406905149986707</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.6419695125678007</v>
+        <v>-0.624986825417204</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4611062356260295</v>
+        <v>-0.4664779715665634</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.4067675415294968</v>
+        <v>-0.4286928115551731</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.6092180132766447</v>
+        <v>-0.6128040060037716</v>
       </c>
     </row>
     <row r="52">
